--- a/DOC/speed-up.xlsx
+++ b/DOC/speed-up.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polve\Desktop\LDA\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21C0B5-ED04-457E-9042-C8795B545CB8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C184372-EF20-4A8D-92DA-55E3F1606E54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7335" xr2:uid="{2498EFDF-737A-4B67-983C-A5286CDBED9A}"/>
   </bookViews>
@@ -31,12 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>128*32</t>
-  </si>
-  <si>
-    <t>232, 233, 239</t>
   </si>
   <si>
     <t>81, 82, 81</t>
@@ -60,9 +57,6 @@
     <t>114, 116, 115</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>1028*256</t>
   </si>
   <si>
@@ -75,16 +69,10 @@
     <t>128*512</t>
   </si>
   <si>
-    <t>239, 239, 239</t>
-  </si>
-  <si>
     <t>241, 241, 244</t>
   </si>
   <si>
     <t>128*1024</t>
-  </si>
-  <si>
-    <t>243,242,254</t>
   </si>
   <si>
     <t>451,447, 454</t>
@@ -93,16 +81,10 @@
     <t>128*2048</t>
   </si>
   <si>
-    <t>255,256,260</t>
-  </si>
-  <si>
     <t>826,828,827</t>
   </si>
   <si>
     <t>128*4096</t>
-  </si>
-  <si>
-    <t>305,281,277</t>
   </si>
   <si>
     <t>1596,1600,1575</t>
@@ -113,13 +95,53 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>105,86,86,89,85</t>
+  </si>
+  <si>
+    <t>gpu</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cpu</t>
+  </si>
+  <si>
+    <t>94,102,93,100,93</t>
+  </si>
+  <si>
+    <t>101,98,98,105,98</t>
+  </si>
+  <si>
+    <t>129,124,110,108,110</t>
+  </si>
+  <si>
+    <t>130,130,137,129,129</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -143,12 +165,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -201,7 +330,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Speed-up</a:t>
+              <a:t>Speedup</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -237,7 +366,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.7800777751672801E-2"/>
+          <c:y val="0.11143835088189133"/>
+          <c:w val="0.91469815555927536"/>
+          <c:h val="0.75815472098242276"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -311,28 +450,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.34615384615384615</c:v>
+                  <c:v>0.89800443458980039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40772532188841204</c:v>
+                  <c:v>1.0746606334841629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48936170212765956</c:v>
+                  <c:v>1.2392241379310345</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63265306122448983</c:v>
+                  <c:v>1.652452025586354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.01255230125523</c:v>
+                  <c:v>2.5103734439834025</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8292682926829269</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.217898832684825</c:v>
+                  <c:v>7.1170395869191045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.5400696864111501</c:v>
+                  <c:v>12.137404580152671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,6 +515,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t> dimensione campione (x X 128)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50883716073616436"/>
+              <c:y val="0.92136817184498132"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -438,6 +640,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -576,7 +833,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$D$20:$D$27</c:f>
+              <c:f>Foglio1!$D$19:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -609,7 +866,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$20:$E$27</c:f>
+              <c:f>Foglio1!$E$19:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -679,7 +936,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Foglio1!$F$20:$F$27</c:f>
+              <c:f>Foglio1!$F$19:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -712,33 +969,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$G$20:$G$27</c:f>
+              <c:f>Foglio1!$G$19:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>232</c:v>
+                  <c:v>90.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>234</c:v>
+                  <c:v>88.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235</c:v>
+                  <c:v>92.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>245</c:v>
+                  <c:v>93.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>245</c:v>
+                  <c:v>96.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>246</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>257</c:v>
+                  <c:v>116.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>287</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,6 +1039,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>dimensione</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" baseline="0"/>
+                  <a:t> campione (x X 128)</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -844,6 +1161,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>tempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2071,16 +2448,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>544501</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57790</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2107,16 +2484,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>347661</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>43509</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>183355</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>407729</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>165227</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2441,452 +2818,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB76F9E1-BB9D-41FA-AD66-307CFD8CF274}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="G33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="e">
-        <f>-gpu</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="e">
-        <f>-cpu</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>81</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>32</v>
       </c>
-      <c r="E5">
-        <v>0.34615384615384615</v>
+      <c r="E5" s="5">
+        <f>C5/C3</f>
+        <v>0.89800443458980039</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="D6" s="4">
+        <v>64</v>
+      </c>
+      <c r="E6" s="5">
+        <f>C10/C7</f>
+        <v>1.0746606334841629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="C7">
+        <v>88.4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>128</v>
+      </c>
+      <c r="E7" s="5">
+        <f>C15/C13</f>
+        <v>1.2392241379310345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="4">
+        <v>256</v>
+      </c>
+      <c r="E8" s="5">
+        <f>C20/C18</f>
+        <v>1.652452025586354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="4">
+        <v>512</v>
+      </c>
+      <c r="E9" s="5">
+        <f>C25/C23</f>
+        <v>2.5103734439834025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>95</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1024</v>
+      </c>
+      <c r="E10" s="5">
+        <f>C30/C28</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>2048</v>
+      </c>
+      <c r="E11" s="5">
+        <f>C36/C34</f>
+        <v>7.1170395869191045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="D12" s="6">
+        <v>4096</v>
+      </c>
+      <c r="E12" s="7">
+        <f>C41/C39</f>
+        <v>12.137404580152671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <f>(89+108+92+90+90)/5</f>
+        <v>93.8</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="4">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5">
+        <v>81</v>
+      </c>
+      <c r="F19" s="4">
+        <v>32</v>
+      </c>
+      <c r="G19" s="5">
+        <f>C3</f>
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>155</v>
+      </c>
+      <c r="D20" s="4">
         <v>64</v>
       </c>
-      <c r="E6">
-        <v>0.40772532188841204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="e">
-        <f>-gpu</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D7">
+      <c r="E20" s="5">
+        <v>95</v>
+      </c>
+      <c r="F20" s="4">
+        <v>64</v>
+      </c>
+      <c r="G20" s="5">
+        <f>C7</f>
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="4">
         <v>128</v>
       </c>
-      <c r="E7">
-        <v>0.48936170212765956</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>233</v>
-      </c>
-      <c r="D8">
+      <c r="E21" s="5">
+        <v>115</v>
+      </c>
+      <c r="F21" s="4">
+        <v>128</v>
+      </c>
+      <c r="G21" s="5">
+        <f>C13</f>
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="D22" s="4">
         <v>256</v>
       </c>
-      <c r="E8">
-        <v>0.63265306122448983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9">
+      <c r="E22" s="5">
+        <v>155</v>
+      </c>
+      <c r="F22" s="4">
+        <v>256</v>
+      </c>
+      <c r="G22" s="5">
+        <f>C18</f>
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <f>(94+102+93+100+93)/5</f>
+        <v>96.4</v>
+      </c>
+      <c r="D23" s="4">
         <v>512</v>
       </c>
-      <c r="E9">
-        <v>1.01255230125523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="e">
-        <f>- cpu</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D10">
+      <c r="E23" s="5">
+        <v>242</v>
+      </c>
+      <c r="F23" s="4">
+        <v>512</v>
+      </c>
+      <c r="G23" s="5">
+        <f>C23</f>
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="D24" s="4">
         <v>1024</v>
       </c>
-      <c r="E10">
-        <v>1.8292682926829269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>95</v>
-      </c>
-      <c r="D11">
+      <c r="E24" s="5">
+        <v>450</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1024</v>
+      </c>
+      <c r="G24" s="5">
+        <f>C28</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>242</v>
+      </c>
+      <c r="D25" s="4">
         <v>2048</v>
       </c>
-      <c r="E11">
-        <v>3.217898832684825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12">
+      <c r="E25" s="5">
+        <v>827</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2048</v>
+      </c>
+      <c r="G25" s="5">
+        <f>C34</f>
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="6">
         <v>4096</v>
       </c>
-      <c r="E12">
-        <v>5.5400696864111501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="e">
-        <f>-gpu</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="e">
-        <f>-cpu</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="e">
-        <f>-gpu</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E26" s="7">
+        <v>1590</v>
+      </c>
+      <c r="F26" s="6">
+        <v>4096</v>
+      </c>
+      <c r="G26" s="7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>245</v>
-      </c>
-      <c r="D20">
-        <v>32</v>
-      </c>
-      <c r="E20">
-        <v>81</v>
-      </c>
-      <c r="F20">
-        <v>32</v>
-      </c>
-      <c r="G20">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="e">
-        <f>-cpu</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D21">
-        <v>64</v>
-      </c>
-      <c r="E21">
-        <v>95</v>
-      </c>
-      <c r="F21">
-        <v>64</v>
-      </c>
-      <c r="G21">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>155</v>
-      </c>
-      <c r="D22">
-        <v>128</v>
-      </c>
-      <c r="E22">
-        <v>115</v>
-      </c>
-      <c r="F22">
-        <v>128</v>
-      </c>
-      <c r="G22">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23">
-        <v>256</v>
-      </c>
-      <c r="E23">
-        <v>155</v>
-      </c>
-      <c r="F23">
-        <v>256</v>
-      </c>
-      <c r="G23">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="e">
-        <f>-gpu</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D24">
-        <v>512</v>
-      </c>
-      <c r="E24">
-        <v>242</v>
-      </c>
-      <c r="F24">
-        <v>512</v>
-      </c>
-      <c r="G24">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C28">
+        <f>(101+98+98+105+98)/5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C25">
-        <v>239</v>
-      </c>
-      <c r="D25">
-        <v>1024</v>
-      </c>
-      <c r="E25">
+      <c r="C30">
         <v>450</v>
       </c>
-      <c r="F25">
-        <v>1024</v>
-      </c>
-      <c r="G25">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="e">
-        <f>-cpu</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D26">
-        <v>2048</v>
-      </c>
-      <c r="E26">
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <f>(129+124+110+108+110)/5</f>
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
         <v>827</v>
       </c>
-      <c r="F26">
-        <v>2048</v>
-      </c>
-      <c r="G26">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>242</v>
-      </c>
-      <c r="D27">
-        <v>4096</v>
-      </c>
-      <c r="E27">
-        <v>1590</v>
-      </c>
-      <c r="F27">
-        <v>4096</v>
-      </c>
-      <c r="G27">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="e">
-        <f>-gpu</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="e">
-        <f>-cpu</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <f>(130+130+137+129+129)/5</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C33">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="e">
-        <f>-gpu</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="e">
-        <f>-cpu</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="e">
-        <f>-gpu</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="e">
-        <f>-cpu</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44">
+      <c r="C41">
         <v>1590</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DOC/speed-up.xlsx
+++ b/DOC/speed-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polve\Desktop\LDA\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C184372-EF20-4A8D-92DA-55E3F1606E54}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E415681-21CA-47ED-9254-82131BE8B611}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7335" xr2:uid="{2498EFDF-737A-4B67-983C-A5286CDBED9A}"/>
   </bookViews>
@@ -114,10 +114,10 @@
     <t>101,98,98,105,98</t>
   </si>
   <si>
-    <t>129,124,110,108,110</t>
+    <t>130,130,137,129,129</t>
   </si>
   <si>
-    <t>130,130,137,129,129</t>
+    <t>107,112,106,106,124</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1170395869191045</c:v>
+                  <c:v>7.4504504504504503</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>12.137404580152671</c:v>
@@ -992,10 +992,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116.2</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>279</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2820,8 +2820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB76F9E1-BB9D-41FA-AD66-307CFD8CF274}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA46" sqref="AA46"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="E11" s="5">
         <f>C36/C34</f>
-        <v>7.1170395869191045</v>
+        <v>7.4504504504504503</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G25" s="5">
         <f>C34</f>
-        <v>116.2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3178,7 +3178,8 @@
         <v>4096</v>
       </c>
       <c r="G26" s="7">
-        <v>279</v>
+        <f>C39</f>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3227,11 +3228,11 @@
         <v>22</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
-        <f>(129+124+110+108+110)/5</f>
-        <v>116.2</v>
+        <f>(107+106+106+112+124)/5</f>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3261,7 +3262,7 @@
         <v>22</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39">
         <f>(130+130+137+129+129)/5</f>
